--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H2">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I2">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J2">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.6256670268557</v>
+        <v>170.93328</v>
       </c>
       <c r="N2">
-        <v>42.6256670268557</v>
+        <v>512.79984</v>
       </c>
       <c r="O2">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213114</v>
       </c>
       <c r="P2">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213115</v>
       </c>
       <c r="Q2">
-        <v>47.91158386207696</v>
+        <v>312.04707837072</v>
       </c>
       <c r="R2">
-        <v>47.91158386207696</v>
+        <v>2808.42370533648</v>
       </c>
       <c r="S2">
-        <v>0.01453599739261782</v>
+        <v>0.03610691184733121</v>
       </c>
       <c r="T2">
-        <v>0.01453599739261782</v>
+        <v>0.03610691184733122</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H3">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I3">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J3">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.290959532207</v>
+        <v>40.31217066666667</v>
       </c>
       <c r="N3">
-        <v>40.290959532207</v>
+        <v>120.936512</v>
       </c>
       <c r="O3">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="P3">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="Q3">
-        <v>45.2873543373447</v>
+        <v>73.59184284836266</v>
       </c>
       <c r="R3">
-        <v>45.2873543373447</v>
+        <v>662.326585635264</v>
       </c>
       <c r="S3">
-        <v>0.01373982681226404</v>
+        <v>0.008515299025654363</v>
       </c>
       <c r="T3">
-        <v>0.01373982681226404</v>
+        <v>0.008515299025654363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H4">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I4">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J4">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.095858225337</v>
+        <v>11.112244</v>
       </c>
       <c r="N4">
-        <v>11.095858225337</v>
+        <v>33.336732</v>
       </c>
       <c r="O4">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="P4">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="Q4">
-        <v>12.47183162084033</v>
+        <v>20.285945921956</v>
       </c>
       <c r="R4">
-        <v>12.47183162084033</v>
+        <v>182.573513297604</v>
       </c>
       <c r="S4">
-        <v>0.003783855537808653</v>
+        <v>0.002347283188704009</v>
       </c>
       <c r="T4">
-        <v>0.003783855537808653</v>
+        <v>0.002347283188704009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.5282722583196</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H5">
-        <v>23.5282722583196</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I5">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J5">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.6256670268557</v>
+        <v>170.93328</v>
       </c>
       <c r="N5">
-        <v>42.6256670268557</v>
+        <v>512.79984</v>
       </c>
       <c r="O5">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213114</v>
       </c>
       <c r="P5">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213115</v>
       </c>
       <c r="Q5">
-        <v>1002.908299000337</v>
+        <v>4030.158270451039</v>
       </c>
       <c r="R5">
-        <v>1002.908299000337</v>
+        <v>36271.42443405936</v>
       </c>
       <c r="S5">
-        <v>0.3042744832078635</v>
+        <v>0.4663288955043221</v>
       </c>
       <c r="T5">
-        <v>0.3042744832078635</v>
+        <v>0.4663288955043222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.5282722583196</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H6">
-        <v>23.5282722583196</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I6">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J6">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.290959532207</v>
+        <v>40.31217066666667</v>
       </c>
       <c r="N6">
-        <v>40.290959532207</v>
+        <v>120.936512</v>
       </c>
       <c r="O6">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="P6">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="Q6">
-        <v>947.9766654227035</v>
+        <v>950.4552186215608</v>
       </c>
       <c r="R6">
-        <v>947.9766654227035</v>
+        <v>8554.096967594045</v>
       </c>
       <c r="S6">
-        <v>0.2876086579920801</v>
+        <v>0.1099770040238413</v>
       </c>
       <c r="T6">
-        <v>0.2876086579920801</v>
+        <v>0.1099770040238413</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.5282722583196</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H7">
-        <v>23.5282722583196</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I7">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J7">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.095858225337</v>
+        <v>11.112244</v>
       </c>
       <c r="N7">
-        <v>11.095858225337</v>
+        <v>33.336732</v>
       </c>
       <c r="O7">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="P7">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="Q7">
-        <v>261.0663732654439</v>
+        <v>261.9975586958253</v>
       </c>
       <c r="R7">
-        <v>261.0663732654439</v>
+        <v>2357.978028262427</v>
       </c>
       <c r="S7">
-        <v>0.07920548258247825</v>
+        <v>0.03031569084203222</v>
       </c>
       <c r="T7">
-        <v>0.07920548258247825</v>
+        <v>0.03031569084203222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.407578503774</v>
+        <v>13.46376966666667</v>
       </c>
       <c r="H8">
-        <v>10.407578503774</v>
+        <v>40.391309</v>
       </c>
       <c r="I8">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="J8">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.6256670268557</v>
+        <v>170.93328</v>
       </c>
       <c r="N8">
-        <v>42.6256670268557</v>
+        <v>512.79984</v>
       </c>
       <c r="O8">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213114</v>
       </c>
       <c r="P8">
-        <v>0.4534043231025093</v>
+        <v>0.7687311215213115</v>
       </c>
       <c r="Q8">
-        <v>443.6299758577316</v>
+        <v>2301.40631028784</v>
       </c>
       <c r="R8">
-        <v>443.6299758577316</v>
+        <v>20712.65679259056</v>
       </c>
       <c r="S8">
-        <v>0.134593842502028</v>
+        <v>0.2662953141696581</v>
       </c>
       <c r="T8">
-        <v>0.134593842502028</v>
+        <v>0.2662953141696582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.407578503774</v>
+        <v>13.46376966666667</v>
       </c>
       <c r="H9">
-        <v>10.407578503774</v>
+        <v>40.391309</v>
       </c>
       <c r="I9">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="J9">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.290959532207</v>
+        <v>40.31217066666667</v>
       </c>
       <c r="N9">
-        <v>40.290959532207</v>
+        <v>120.936512</v>
       </c>
       <c r="O9">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="P9">
-        <v>0.4285703077054807</v>
+        <v>0.1812942463137967</v>
       </c>
       <c r="Q9">
-        <v>419.3313243238256</v>
+        <v>542.7537806193565</v>
       </c>
       <c r="R9">
-        <v>419.3313243238256</v>
+        <v>4884.784025574208</v>
       </c>
       <c r="S9">
-        <v>0.1272218229011366</v>
+        <v>0.062801943264301</v>
       </c>
       <c r="T9">
-        <v>0.1272218229011366</v>
+        <v>0.062801943264301</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.407578503774</v>
+        <v>13.46376966666667</v>
       </c>
       <c r="H10">
-        <v>10.407578503774</v>
+        <v>40.391309</v>
       </c>
       <c r="I10">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="J10">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.095858225337</v>
+        <v>11.112244</v>
       </c>
       <c r="N10">
-        <v>11.095858225337</v>
+        <v>33.336732</v>
       </c>
       <c r="O10">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="P10">
-        <v>0.11802536919201</v>
+        <v>0.04997463216489184</v>
       </c>
       <c r="Q10">
-        <v>115.4810155469413</v>
+        <v>149.6126936957986</v>
       </c>
       <c r="R10">
-        <v>115.4810155469413</v>
+        <v>1346.514243262188</v>
       </c>
       <c r="S10">
-        <v>0.03503603107172312</v>
+        <v>0.01731165813415561</v>
       </c>
       <c r="T10">
-        <v>0.03503603107172312</v>
+        <v>0.01731165813415561</v>
       </c>
     </row>
   </sheetData>
